--- a/web/storage/excel/Feuil4-Processing-Empty-Claude-1.xlsx
+++ b/web/storage/excel/Feuil4-Processing-Empty-Claude-1.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Feuil4-Processing-Empty-Claude1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="580">
   <si>
     <t>UI_ID</t>
   </si>
@@ -3357,6 +3357,93 @@
   </si>
   <si>
     <t>https://ttt-mobileapp.fwh.is/storage/screenshot/Screenshot%20Wave%20Business/Screenshot_2026-02-11-20-48-14-287.jpg</t>
+  </si>
+  <si>
+    <t>BankCard_LinkBankOrSFD_BanksList</t>
+  </si>
+  <si>
+    <t>BankCard_LinkBankOrSFD_SFDsList</t>
+  </si>
+  <si>
+    <t>Coffre_MainWindow</t>
+  </si>
+  <si>
+    <t>QRCodeScanner_ActiveCamera</t>
+  </si>
+  <si>
+    <t>Agent_WelcomeScreen_Login</t>
+  </si>
+  <si>
+    <t>Business_MainWindow_Dashboard</t>
+  </si>
+  <si>
+    <t>Business_WebView_UnauthorizedDevice_Alert</t>
+  </si>
+  <si>
+    <t>Business_WelcomeScreen_Onboarding</t>
+  </si>
+  <si>
+    <t>Business_SettingsWindow</t>
+  </si>
+  <si>
+    <t>Business_SettingsWindow_RequestQRCode_Confirmation</t>
+  </si>
+  <si>
+    <t>Business_SettingsWindow_DisplayMerchantQRCode</t>
+  </si>
+  <si>
+    <t>Business_SettingsWindow_RequestCeilingIncrease_DocumentsCheck</t>
+  </si>
+  <si>
+    <t>Business_SettingsWindow_Documents_KYCStatus</t>
+  </si>
+  <si>
+    <t>Business_SettingsWindow_SecuritySettings</t>
+  </si>
+  <si>
+    <t>Business_SettingsWindow_TrainingVideos</t>
+  </si>
+  <si>
+    <t>Business_SettingsWindow_VerifyWaveAgent_BadgeScanner</t>
+  </si>
+  <si>
+    <t>Business_MainWindow_Dashboard_with_TrainingVideoTip</t>
+  </si>
+  <si>
+    <t>Business_Retrait_ScannerChezAgent_QRCode</t>
+  </si>
+  <si>
+    <t>ReferralRewards_and_Gifts</t>
+  </si>
+  <si>
+    <t>ReferralRewards_and_Gift_Detail</t>
+  </si>
+  <si>
+    <t>Business_PayMerchant_ModeSelection</t>
+  </si>
+  <si>
+    <t>Business_CashIn_AmountEntry</t>
+  </si>
+  <si>
+    <t>Business_CashIn_QRCodeScanner_ReceivePayment</t>
+  </si>
+  <si>
+    <t>Business_MoneyTransfer_TypeSelection</t>
+  </si>
+  <si>
+    <t>Business_PayMerchant_OnSite_QRCodeScanner</t>
+  </si>
+  <si>
+    <t>Business_PayMerchant_Remote_MerchantSelection</t>
+  </si>
+  <si>
+    <t>Business_SendLink_PaymentLinkSharing</t>
+  </si>
+  <si>
+    <t>Business_SendLink_SMS_Sent</t>
+  </si>
+  <si>
+    <t>Business_SendLink_WhatsApp_Sent</t>
   </si>
 </sst>
 </file>
@@ -3446,7 +3533,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3479,6 +3566,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3785,16 +3875,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30" style="13" customWidth="1"/>
+    <col min="3" max="3" width="40" style="13" customWidth="1"/>
     <col min="4" max="4" width="45" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
     <col min="6" max="6" width="27.28515625" style="1" customWidth="1"/>
@@ -6371,8 +6461,10 @@
       <c r="A46" s="2">
         <v>44</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6" t="s">
+      <c r="B46" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>425</v>
       </c>
       <c r="D46" s="6"/>
@@ -6421,8 +6513,10 @@
       <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6" t="s">
+      <c r="B47" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>433</v>
       </c>
       <c r="D47" s="6"/>
@@ -6471,8 +6565,10 @@
       <c r="A48" s="2">
         <v>46</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6" t="s">
+      <c r="B48" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>437</v>
       </c>
       <c r="D48" s="6"/>
@@ -6521,8 +6617,10 @@
       <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6" t="s">
+      <c r="B49" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>441</v>
       </c>
       <c r="D49" s="6"/>
@@ -6571,8 +6669,10 @@
       <c r="A50" s="2">
         <v>48</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6" t="s">
+      <c r="B50" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>445</v>
       </c>
       <c r="D50" s="6"/>
@@ -6621,8 +6721,10 @@
       <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6" t="s">
+      <c r="B51" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>449</v>
       </c>
       <c r="D51" s="6"/>
@@ -6671,8 +6773,10 @@
       <c r="A52" s="2">
         <v>50</v>
       </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6" t="s">
+      <c r="B52" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>453</v>
       </c>
       <c r="D52" s="6"/>
@@ -6721,8 +6825,10 @@
       <c r="A53" s="2">
         <v>51</v>
       </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6" t="s">
+      <c r="B53" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>460</v>
       </c>
       <c r="D53" s="6"/>
@@ -6771,8 +6877,10 @@
       <c r="A54" s="2">
         <v>52</v>
       </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6" t="s">
+      <c r="B54" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>467</v>
       </c>
       <c r="D54" s="6"/>
@@ -6821,8 +6929,10 @@
       <c r="A55" s="2">
         <v>53</v>
       </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6" t="s">
+      <c r="B55" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>471</v>
       </c>
       <c r="D55" s="6"/>
@@ -6871,8 +6981,10 @@
       <c r="A56" s="2">
         <v>54</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6" t="s">
+      <c r="B56" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>475</v>
       </c>
       <c r="D56" s="6"/>
@@ -6921,8 +7033,10 @@
       <c r="A57" s="2">
         <v>55</v>
       </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6" t="s">
+      <c r="B57" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>479</v>
       </c>
       <c r="D57" s="6"/>
@@ -6971,8 +7085,10 @@
       <c r="A58" s="2">
         <v>56</v>
       </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6" t="s">
+      <c r="B58" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>483</v>
       </c>
       <c r="D58" s="6"/>
@@ -7021,8 +7137,10 @@
       <c r="A59" s="2">
         <v>57</v>
       </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6" t="s">
+      <c r="B59" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>487</v>
       </c>
       <c r="D59" s="6"/>
@@ -7071,8 +7189,10 @@
       <c r="A60" s="2">
         <v>58</v>
       </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6" t="s">
+      <c r="B60" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>491</v>
       </c>
       <c r="D60" s="6"/>
@@ -7121,8 +7241,10 @@
       <c r="A61" s="2">
         <v>59</v>
       </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6" t="s">
+      <c r="B61" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>495</v>
       </c>
       <c r="D61" s="6"/>
@@ -7171,8 +7293,10 @@
       <c r="A62" s="2">
         <v>60</v>
       </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6" t="s">
+      <c r="B62" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>499</v>
       </c>
       <c r="D62" s="6"/>
@@ -7221,8 +7345,10 @@
       <c r="A63" s="2">
         <v>61</v>
       </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6" t="s">
+      <c r="B63" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>503</v>
       </c>
       <c r="D63" s="6"/>
@@ -7271,8 +7397,10 @@
       <c r="A64" s="2">
         <v>62</v>
       </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6" t="s">
+      <c r="B64" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>507</v>
       </c>
       <c r="D64" s="6"/>
@@ -7321,8 +7449,10 @@
       <c r="A65" s="2">
         <v>63</v>
       </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6" t="s">
+      <c r="B65" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>511</v>
       </c>
       <c r="D65" s="6"/>
@@ -7371,8 +7501,10 @@
       <c r="A66" s="2">
         <v>64</v>
       </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6" t="s">
+      <c r="B66" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>515</v>
       </c>
       <c r="D66" s="6"/>
@@ -7421,8 +7553,10 @@
       <c r="A67" s="2">
         <v>65</v>
       </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6" t="s">
+      <c r="B67" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>519</v>
       </c>
       <c r="D67" s="6"/>
@@ -7471,8 +7605,10 @@
       <c r="A68" s="2">
         <v>66</v>
       </c>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6" t="s">
+      <c r="B68" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>523</v>
       </c>
       <c r="D68" s="6"/>
@@ -7521,8 +7657,10 @@
       <c r="A69" s="2">
         <v>67</v>
       </c>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6" t="s">
+      <c r="B69" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>527</v>
       </c>
       <c r="D69" s="6"/>
@@ -7571,8 +7709,10 @@
       <c r="A70" s="2">
         <v>68</v>
       </c>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6" t="s">
+      <c r="B70" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>531</v>
       </c>
       <c r="D70" s="6"/>
@@ -7621,8 +7761,10 @@
       <c r="A71" s="2">
         <v>69</v>
       </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6" t="s">
+      <c r="B71" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>535</v>
       </c>
       <c r="D71" s="6"/>
@@ -7671,8 +7813,10 @@
       <c r="A72" s="2">
         <v>70</v>
       </c>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6" t="s">
+      <c r="B72" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>539</v>
       </c>
       <c r="D72" s="6"/>
@@ -7721,8 +7865,10 @@
       <c r="A73" s="2">
         <v>71</v>
       </c>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6" t="s">
+      <c r="B73" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>543</v>
       </c>
       <c r="D73" s="6"/>
@@ -7771,8 +7917,10 @@
       <c r="A74" s="2">
         <v>72</v>
       </c>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6" t="s">
+      <c r="B74" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>547</v>
       </c>
       <c r="D74" s="6"/>
